--- a/Table/Datas/ItemData.xlsx
+++ b/Table/Datas/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26983EBC-2557-40D8-BB78-C4821C5660D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665AB3D-FBDD-40A9-ACF7-536CFFC93123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28275" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>/Game/CraftResourcesIcons/Textures/Tex_recipes_09_b.Tex_recipes_09_b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanStack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,20 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +495,17 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,8 +515,17 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -489,10 +533,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -500,10 +553,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -511,10 +573,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -522,10 +593,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -533,7 +613,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/ItemData.xlsx
+++ b/Table/Datas/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665AB3D-FBDD-40A9-ACF7-536CFFC93123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383FE92-1431-43E2-94B3-8C240B6A0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28275" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -100,6 +100,22 @@
   </si>
   <si>
     <t>Scroll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -470,22 +486,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +520,11 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,8 +543,11 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -533,19 +555,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -553,19 +578,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -573,19 +601,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -593,19 +624,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -613,15 +647,18 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>10</v>
       </c>
     </row>

--- a/Table/Datas/ItemData.xlsx
+++ b/Table/Datas/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383FE92-1431-43E2-94B3-8C240B6A0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50F4F1-2C4B-4459-AA03-D52CED67D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -117,6 +117,46 @@
   <si>
     <t>Legend</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanCell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 회복</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>책이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -486,22 +526,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +565,17 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,16 +589,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,16 +621,25 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -584,16 +653,25 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -607,16 +685,25 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -630,16 +717,25 @@
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -653,12 +749,21 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
         <v>10</v>
       </c>
     </row>

--- a/Table/Datas/ItemData.xlsx
+++ b/Table/Datas/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50F4F1-2C4B-4459-AA03-D52CED67D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7F143B-B7EE-4BBF-BA9C-CAF774FFE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>Account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyPrice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,10 +564,10 @@
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +598,20 @@
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,8 +642,20 @@
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -638,8 +686,20 @@
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -670,8 +730,20 @@
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -702,8 +774,20 @@
       <c r="J6" s="3">
         <v>100</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3">
+        <v>250</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3">
+        <v>300</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -734,8 +818,20 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -765,6 +861,18 @@
       </c>
       <c r="J8" s="3">
         <v>10</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="3">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
